--- a/pmi/commmodity_up.xlsx
+++ b/pmi/commmodity_up.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Labor — Professional Services</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Polypropylene</t>
+          <t>Labor — Contract</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Steel Products</t>
+          <t>Labor — Services</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,19 +484,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Oil  Related Products</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Labor — Temporary</t>
+          <t>Fuel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,43 +508,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plastic Resins</t>
+          <t>Diesel Fuel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Road Freight</t>
+          <t>Electrical Components</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Crude Oil</t>
+          <t>Labor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Natural Gas</t>
+          <t>Lumber</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,12 +556,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Gasoline</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Polyvinyl Chloride</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PVC) Products</t>
         </is>
       </c>
     </row>
